--- a/files/SM1/K7/K7-P187-Direction.xlsx
+++ b/files/SM1/K7/K7-P187-Direction.xlsx
@@ -1,103 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96180258-0A15-43DA-9101-09AA53F4B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2190" yWindow="2940" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Missä?</t>
+  </si>
+  <si>
+    <t>Mistä?</t>
+  </si>
+  <si>
+    <t>tänne</t>
+  </si>
+  <si>
+    <t>tuonne</t>
+  </si>
+  <si>
+    <t>sinne</t>
+  </si>
+  <si>
+    <t>täällä</t>
+  </si>
+  <si>
+    <t>tuolla</t>
+  </si>
+  <si>
+    <t>siellä</t>
+  </si>
+  <si>
+    <t>täältä</t>
+  </si>
+  <si>
+    <t>tuolta</t>
+  </si>
+  <si>
+    <t>sieltä</t>
+  </si>
+  <si>
+    <t>To where?</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>From where?</t>
+  </si>
   <si>
     <t>Mihin?</t>
-  </si>
-  <si>
-    <t>Missä?</t>
-  </si>
-  <si>
-    <t>Mistä?</t>
-  </si>
-  <si>
-    <t>tänne</t>
-  </si>
-  <si>
-    <t>tuonne</t>
-  </si>
-  <si>
-    <t>sinne</t>
-  </si>
-  <si>
-    <t>täällä</t>
-  </si>
-  <si>
-    <t>tuolla</t>
-  </si>
-  <si>
-    <t>siellä</t>
-  </si>
-  <si>
-    <t>täältä</t>
-  </si>
-  <si>
-    <t>tuolta</t>
-  </si>
-  <si>
-    <t>sieltä</t>
-  </si>
-  <si>
-    <t>To where?</t>
-  </si>
-  <si>
-    <t>Where?</t>
-  </si>
-  <si>
-    <t>From where?</t>
-  </si>
-  <si>
-    <t>(to) here</t>
-  </si>
-  <si>
-    <t>(to) over there</t>
-  </si>
-  <si>
-    <t>(to) there</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>over there</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>from here</t>
-  </si>
-  <si>
-    <t>from over there</t>
-  </si>
-  <si>
-    <t>from there</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) here (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) over there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from here (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from over there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from there (outside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tähän</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) here (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuohon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) over there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siihen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tässä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuossa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siinä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tästä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from here (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuosta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from over there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siitä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,13 +224,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +276,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -207,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,110 +521,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/SM1/K7/K7-P187-Direction.xlsx
+++ b/files/SM1/K7/K7-P187-Direction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96180258-0A15-43DA-9101-09AA53F4B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67395AD-716D-48F0-AFFA-483C1F9EC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2940" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="790" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>here (outside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>over there (outside)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>here (inside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tuossa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +165,14 @@
   </si>
   <si>
     <t>from there (inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here (wide range)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here (spot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,79 +623,79 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/files/SM1/K7/K7-P187-Direction.xlsx
+++ b/files/SM1/K7/K7-P187-Direction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67395AD-716D-48F0-AFFA-483C1F9EC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5749A106-DA4E-406B-871D-B71A16253F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="790" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>over there (outside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>there (outside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from here (outside)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,18 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>over there (inside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siinä</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>there (inside)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tästä</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,11 +152,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>here (wide range)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>here (spot)</t>
+    <t>here (big area, surface)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over there (big area, surface, can see)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there (big area, surface, can't see)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here (small area, inside)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over there (small area, inside, can see)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there (small area, inside, can't see)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,79 +623,79 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
